--- a/Data Files/Sample/LoginSample.xlsx
+++ b/Data Files/Sample/LoginSample.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KatalonStudio\LearnKatalon\Data Files\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2722A69F-61C8-4518-9EB8-FD8320EAD074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6142B344-887E-47A6-B133-6A6897B6FBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -44,6 +43,21 @@
   </si>
   <si>
     <t>4aUHZLRHJF4=</t>
+  </si>
+  <si>
+    <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username is required</t>
+  </si>
+  <si>
+    <t>Epic sadface: Password is required</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username and password do not match any user in this service</t>
+  </si>
+  <si>
+    <t>expectedMessage</t>
   </si>
 </sst>
 </file>
@@ -361,103 +375,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367067CC-D7FF-4098-8DF9-C316A5BBFB2E}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
